--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2304959.506863867</v>
+        <v>2302415.697356783</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>225.1346772411289</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.39524526193546</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>37.34724819842792</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>183.3251963852738</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>60.96760033386538</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>7.155295256393153</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>142.717668030411</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>235.8715405415671</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.30710764507479</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>197.8244010340103</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908659</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099058</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247906649</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932180227</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754696</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.24923305751666</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.1987639469978</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182105</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189292</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2293,16 +2293,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>219.4517041866519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5196562849307</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>87.82057320600343</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427265</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206853</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799757</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471538</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471538</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799757</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799757</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799757</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810725</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528709</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473381</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823842</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.9232408259378</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>869.6785539602939</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>869.6785539602939</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>603.3008973931159</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>603.3008973931159</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>336.9232408259378</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>336.9232408259378</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.9232408259378</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
+        <v>573.7617370571243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>307.3840804899463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>307.3840804899463</v>
+      </c>
+      <c r="F5" t="n">
         <v>300.4385797407429</v>
       </c>
-      <c r="D5" t="n">
-        <v>300.4385797407429</v>
-      </c>
-      <c r="E5" t="n">
-        <v>300.4385797407429</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.06092317356495</v>
-      </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>833.1938928750989</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>833.1938928750989</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>833.1938928750989</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>833.1938928750989</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.0283840154698</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>471.0283840154698</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,22 +4647,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>847.0040198004917</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>639.2437210355379</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>816.6014386509063</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>816.6014386509063</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>816.6014386509063</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>816.6014386509063</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643921</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478451</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685573</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685573</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607412</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045933</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S8" t="n">
-        <v>2535.000025347761</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.247941444034</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.247941444034</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.247941444034</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.47928617392</v>
+        <v>1874.30927658829</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.47928617392</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.47928617392</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010732</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199462</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586949</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507237</v>
+        <v>113.4887579637185</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330261</v>
+        <v>559.9063389572702</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665076</v>
+        <v>854.4423223907511</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140809</v>
+        <v>1217.508790865052</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613379</v>
+        <v>1851.24807404989</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600768</v>
+        <v>2183.134884037278</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030393</v>
+        <v>2430.170242466902</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442629</v>
+        <v>2545.387641020647</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251694</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685351</v>
+        <v>2230.816477685343</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751572</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.57421351983</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791628</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586095</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821141</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274018</v>
+        <v>367.0373856326728</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994949</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871592</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047661</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685573</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380163</v>
+        <v>76.63468308380128</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676564</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1113.534501108858</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576415</v>
+        <v>548.6858504629125</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>551.354624631591</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C13" t="n">
-        <v>382.4184417036842</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>545.3854261579775</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>397.4723325755843</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782976</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038364</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2417.418403724183</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.563569379087</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>953.7956686053609</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5270,49 +5270,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650354</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5473,13 +5473,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354868</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,22 +6236,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580265</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603206</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947404</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741517</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,52 +6455,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1018.438627038653</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1938.286391947401</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1648.86922191044</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1420.879671012423</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.087091868893</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400621</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121552</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121552</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121552</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121552</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270352</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580251</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487558</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510499</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611849</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713832</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703019</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7664,7 +7664,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415543</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658826</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.2361746779827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.146344153807</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917327</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538428</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.12601365260502</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.63321623493951</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610383</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0033420516603</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>79.4262478926244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.773416514394</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392195121</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816295.7591651907</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580797</v>
+        <v>390680.0076580779</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606925</v>
+        <v>507909.2320606945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911433</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101786</v>
+        <v>95270.23779101732</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608929</v>
+        <v>138058.0537608934</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26445,19 +26445,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768745</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768777</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567887</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376792.4227279514</v>
+        <v>-376792.4227279517</v>
       </c>
       <c r="C6" t="n">
-        <v>303295.5578632416</v>
+        <v>303295.5578632415</v>
       </c>
       <c r="D6" t="n">
-        <v>-5859.601596439257</v>
+        <v>-5859.601596437904</v>
       </c>
       <c r="E6" t="n">
-        <v>-13618.95643886428</v>
+        <v>-13653.69436430179</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.2756218283</v>
+        <v>494255.5376963927</v>
       </c>
       <c r="G6" t="n">
-        <v>494290.2756218281</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.537696393</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="J6" t="n">
-        <v>425291.121202714</v>
+        <v>425256.3832772786</v>
       </c>
       <c r="K6" t="n">
-        <v>494290.2756218283</v>
+        <v>494255.5376963927</v>
       </c>
       <c r="L6" t="n">
-        <v>399020.0378308105</v>
+        <v>398985.2999053751</v>
       </c>
       <c r="M6" t="n">
-        <v>361572.2999263594</v>
+        <v>361537.5620009231</v>
       </c>
       <c r="N6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963927</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218287</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.2756218284</v>
+        <v>494255.5376963925</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.702459562782</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856966</v>
+        <v>640.1406900856946</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933051</v>
+        <v>319.6474457933037</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788903</v>
+        <v>434.273040778892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841884</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.567598013954</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841884</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841884</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>140.1382145298787</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11956169856018</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.1379383879319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.3354475788764</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>21.39396785832</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>225.2910301688121</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>320.5969632137417</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>4.727397534227748</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>50.38708996111041</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.17830948976581</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.9066996444587</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.77644916453508</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164527094</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912379</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020257</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28384,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.815884897519829e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.63709516081679e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.105823316955884e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30694,13 +30694,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.315036438411535e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763185</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359933</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.760257752507</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307887</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983015</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140463</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571276</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617161</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152208</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519079</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133927</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415874</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307407</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>362.8934092184361</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330459</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043496</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958079</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087206</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.347194155916</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091019</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.536173343032</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234269</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816848</v>
+        <v>62.90656844127568</v>
       </c>
       <c r="K9" t="n">
-        <v>354.6977871538407</v>
+        <v>450.9268494884361</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>366.7338065396978</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>640.1406900856946</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804289</v>
+        <v>249.5306650804283</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961979</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783581</v>
+        <v>15.32840335568808</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873304</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>224.339029438562</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295531</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010493</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317167</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998891</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
